--- a/docs/support_docs/Tables_Figures_TFG.xlsx
+++ b/docs/support_docs/Tables_Figures_TFG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\TFGWorkspace\docs\support_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinmartinfernandez/Workspace/TFGWorkspace/docs/support_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E268825-6C4F-6F45-8126-7B40F17BCCF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,22 +51,22 @@
     <t>Load Mesh With Numpy</t>
   </si>
   <si>
-    <t>Versió amb fors</t>
-  </si>
-  <si>
-    <t>Versió amb NumPy</t>
-  </si>
-  <si>
     <t>q</t>
   </si>
   <si>
     <t>Mbytes</t>
   </si>
+  <si>
+    <t>NumPy version</t>
+  </si>
+  <si>
+    <t>Fors version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,12 +159,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Comparativa de temps</a:t>
+              <a:t>Time comparison</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -200,10 +200,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17712551556055492"/>
-          <c:y val="0.33607591641476553"/>
-          <c:w val="0.82287448443944511"/>
-          <c:h val="0.59653096163446317"/>
+          <c:x val="0.12701855736809467"/>
+          <c:y val="0.22867592050346316"/>
+          <c:w val="0.80895574993901009"/>
+          <c:h val="0.69242373950728286"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -219,7 +219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Versió amb NumPy</c:v>
+                  <c:v>NumPy version</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -274,7 +274,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -336,7 +335,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Versió amb fors</c:v>
+                  <c:v>Fors version</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -352,6 +351,28 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.150714273417564E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-7362-B24C-93C4-2FDFAD9C52C3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -391,7 +412,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -500,12 +520,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Mida de la malla</a:t>
+                  <a:t>MESH SIZE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -621,12 +640,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-ES"/>
-                  <a:t>Segons</a:t>
+                  <a:t>SECONDS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.7021935101488722E-2"/>
+              <c:y val="0.5082037471001849"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -707,7 +733,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -920,7 +945,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1041,7 +1065,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2275,20 +2298,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>791307</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>371231</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2318,7 +2347,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2598,24 +2633,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C6:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -2629,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>6</v>
       </c>
@@ -2643,7 +2678,7 @@
         <v>187.97</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>5</v>
       </c>
@@ -2657,12 +2692,12 @@
         <v>48.94</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>1</v>
       </c>
@@ -2676,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>6</v>
       </c>
@@ -2690,7 +2725,7 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>5</v>
       </c>
@@ -2704,7 +2739,7 @@
         <v>64.271000000000001</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>1</v>
       </c>
@@ -2715,9 +2750,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>11.41</v>
@@ -2726,9 +2761,9 @@
         <v>187.97</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>1.96</v>
@@ -2737,9 +2772,9 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2757,9 +2792,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>24</v>
